--- a/time_management.xlsx
+++ b/time_management.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="14640"/>
+    <workbookView windowHeight="17040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -441,12 +441,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -454,16 +500,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -478,7 +530,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -486,7 +546,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,91 +576,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -605,25 +605,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,169 +701,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +919,30 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -943,35 +961,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -993,26 +1004,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1020,8 +1014,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1030,152 +1024,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1188,67 +1182,55 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
@@ -1575,8 +1557,8 @@
   <sheetPr/>
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1686,62 +1668,62 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" ht="14.75" spans="1:5">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>0</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" ht="14.75" spans="1:5">
-      <c r="A10" s="16"/>
-      <c r="B10" s="17" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="18" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" ht="14.75" spans="1:5">
-      <c r="A11" s="19">
+      <c r="A11" s="13">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="19"/>
-      <c r="B12" s="22" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" ht="14.75" spans="1:5">
-      <c r="A13" s="16"/>
-      <c r="B13" s="23" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="15" t="s">
         <v>28</v>
       </c>
       <c r="E13" s="18" t="s">
@@ -1749,36 +1731,36 @@
       </c>
     </row>
     <row r="14" ht="14.75" spans="1:5">
-      <c r="A14" s="19">
+      <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="19"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
     </row>
     <row r="16" ht="14.75" spans="1:5">
-      <c r="A16" s="16"/>
-      <c r="B16" s="23" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="15" t="s">
         <v>35</v>
       </c>
       <c r="E16" s="18" t="s">
@@ -1786,80 +1768,80 @@
       </c>
     </row>
     <row r="17" ht="14.75" spans="1:5">
-      <c r="A17" s="19">
+      <c r="A17" s="13">
         <v>3</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="19"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="19"/>
-      <c r="B18" s="22" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22" t="s">
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="17"/>
     </row>
     <row r="19" ht="14.75" spans="1:5">
-      <c r="A19" s="16"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="23"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="15" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" ht="14.75" spans="1:5">
-      <c r="A20" s="19">
+      <c r="A20" s="13">
         <v>4</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="20"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="16"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="19"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="19"/>
-      <c r="B22" s="22" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" ht="14.75" spans="1:5">
-      <c r="A23" s="16"/>
-      <c r="B23" s="23" t="s">
+      <c r="A23" s="14"/>
+      <c r="B23" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="15" t="s">
         <v>49</v>
       </c>
       <c r="E23" s="18" t="s">
@@ -1867,43 +1849,43 @@
       </c>
     </row>
     <row r="24" ht="14.75" spans="1:5">
-      <c r="A24" s="19">
+      <c r="A24" s="13">
         <v>5</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="19"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="19"/>
-      <c r="B25" s="22" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="19"/>
-      <c r="B26" s="22" t="s">
+      <c r="A26" s="13"/>
+      <c r="B26" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22" t="s">
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="17"/>
     </row>
     <row r="27" ht="14.75" spans="1:5">
-      <c r="A27" s="16"/>
-      <c r="B27" s="23" t="s">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23" t="s">
+      <c r="C27" s="15"/>
+      <c r="D27" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="18" t="s">
@@ -1911,36 +1893,36 @@
       </c>
     </row>
     <row r="28" ht="14.75" spans="1:5">
-      <c r="A28" s="19">
+      <c r="A28" s="13">
         <v>6</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="19"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="13"/>
+      <c r="B29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22" t="s">
+      <c r="C29" s="17"/>
+      <c r="D29" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="17"/>
     </row>
     <row r="30" ht="14.75" spans="1:5">
-      <c r="A30" s="19"/>
-      <c r="B30" s="23" t="s">
+      <c r="A30" s="13"/>
+      <c r="B30" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="15" t="s">
         <v>63</v>
       </c>
       <c r="E30" s="18" t="s">
@@ -1948,101 +1930,101 @@
       </c>
     </row>
     <row r="31" ht="14.75" spans="1:5">
-      <c r="A31" s="12">
+      <c r="A31" s="20">
         <v>7</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="21"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="19"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="19"/>
-      <c r="B32" s="22" t="s">
+      <c r="A32" s="13"/>
+      <c r="B32" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="E32" s="22"/>
+      <c r="E32" s="17"/>
     </row>
     <row r="33" ht="14.75" spans="1:5">
-      <c r="A33" s="24"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C33" s="18"/>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="E33" s="23" t="s">
+      <c r="E33" s="15" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" ht="14.75" spans="1:5">
-      <c r="A34" s="12">
+      <c r="A34" s="20">
         <v>8</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="21"/>
-      <c r="D34" s="20" t="s">
+      <c r="C34" s="19"/>
+      <c r="D34" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E34" s="20"/>
+      <c r="E34" s="16"/>
     </row>
     <row r="35" ht="14.75" spans="1:5">
-      <c r="A35" s="24"/>
-      <c r="B35" s="23" t="s">
+      <c r="A35" s="13"/>
+      <c r="B35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C35" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E35" s="23" t="s">
+      <c r="E35" s="15" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" ht="14.75" spans="1:5">
-      <c r="A36" s="12">
+      <c r="A36" s="20">
         <v>9</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="20"/>
+      <c r="E36" s="16"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="19"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22" t="s">
+      <c r="A37" s="13"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="17"/>
     </row>
     <row r="38" ht="14.75" spans="1:5">
-      <c r="A38" s="16"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="14"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E38" s="23" t="s">
+      <c r="E38" s="15" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" ht="14.75" spans="3:3">
-      <c r="C39" s="25"/>
+      <c r="C39" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/time_management.xlsx
+++ b/time_management.xlsx
@@ -418,10 +418,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -440,6 +440,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -447,8 +470,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,63 +522,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,7 +547,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -560,25 +569,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,121 +611,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,19 +767,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -761,37 +785,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,17 +922,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -961,28 +979,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1004,18 +1011,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,115 +1024,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1141,28 +1141,28 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1715,12 +1715,12 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" ht="14.75" spans="1:5">
+    <row r="13" spans="1:5">
       <c r="A13" s="14"/>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1734,16 +1734,16 @@
       <c r="A14" s="13">
         <v>2</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="16"/>
       <c r="E14" s="19"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="17" t="s">

--- a/time_management.xlsx
+++ b/time_management.xlsx
@@ -418,9 +418,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
@@ -440,6 +440,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -448,16 +455,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,18 +478,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -493,8 +509,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,16 +524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,17 +541,24 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -553,32 +569,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -611,13 +611,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,43 +773,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -677,115 +785,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,16 +941,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,7 +950,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,6 +966,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,11 +1013,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1024,145 +1024,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1558,7 +1558,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -1692,7 +1692,7 @@
       </c>
     </row>
     <row r="11" ht="14.75" spans="1:5">
-      <c r="A11" s="13">
+      <c r="A11" s="5">
         <v>1</v>
       </c>
       <c r="B11" s="10" t="s">
@@ -1705,7 +1705,7 @@
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="13"/>
+      <c r="A12" s="5"/>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
@@ -1715,18 +1715,18 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="14"/>
+    <row r="13" ht="14.75" spans="1:5">
+      <c r="A13" s="12"/>
       <c r="B13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1738,26 +1738,26 @@
         <v>30</v>
       </c>
       <c r="C14" s="10"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="13"/>
       <c r="B15" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" ht="14.75" spans="1:5">
       <c r="A16" s="14"/>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="7" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="15" t="s">
